--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/NORTH_CAROLINA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/NORTH_CAROLINA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1500"/>
+  <dimension ref="A1:D1494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -433,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C33">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C36">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C38">
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="40">
@@ -934,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="43">
@@ -973,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C47">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C68">
@@ -1285,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="70">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C73">
@@ -1441,13 +1441,13 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C82">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C83">
@@ -1506,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="87">
@@ -1532,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="89">
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="91">
@@ -1675,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="D99">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="100">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="D100">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="101">
@@ -1797,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="109">
@@ -1810,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="D109">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="110">
@@ -1920,7 +1920,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C118">
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="129">
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="D131">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="132">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="D138">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="139">
@@ -2211,7 +2211,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C140">
@@ -2257,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="144">
@@ -2372,14 +2372,14 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="153">
@@ -2398,7 +2398,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2455,7 +2455,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C158">
@@ -2579,7 +2579,7 @@
         <v>19</v>
       </c>
       <c r="D167">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="168">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C172">
@@ -2740,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="D179">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="180">
@@ -2779,7 +2779,7 @@
         <v>19</v>
       </c>
       <c r="D182">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="183">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C184">
@@ -2837,7 +2837,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C187">
@@ -2896,13 +2896,13 @@
         <v>2</v>
       </c>
       <c r="D191">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C192">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C193">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C194">
@@ -2974,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="D197">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="198">
@@ -3058,12 +3058,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C204">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C208">
@@ -3161,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="D211">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="212">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C214">
@@ -3271,14 +3271,14 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
       <c r="D220">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="221">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C224">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C230">
@@ -3421,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="232">
@@ -3447,7 +3447,7 @@
         <v>2</v>
       </c>
       <c r="D233">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="234">
@@ -3486,13 +3486,13 @@
         <v>2</v>
       </c>
       <c r="D236">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C238">
@@ -3551,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="D241">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="242">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C252">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C261">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C263">
@@ -3843,14 +3843,14 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C264">
         <v>2</v>
       </c>
       <c r="D264">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="265">
@@ -3869,14 +3869,14 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
       <c r="D266">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="267">
@@ -3967,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="D273">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="274">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C275">
@@ -4019,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="D277">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="278">
@@ -4045,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="D279">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="280">
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="D280">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="281">
@@ -4110,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="D284">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="285">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C286">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C291">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C292">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C293">
@@ -4233,14 +4233,14 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C294">
         <v>2</v>
       </c>
       <c r="D294">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="295">
@@ -4279,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="D297">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="298">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C305">
@@ -4394,7 +4394,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C306">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C307">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C315">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C319">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C327">
@@ -4719,7 +4719,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C331">
@@ -4745,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C333">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C335">
@@ -4797,7 +4797,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C337">
@@ -4817,13 +4817,13 @@
         <v>2</v>
       </c>
       <c r="D338">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C339">
@@ -4888,7 +4888,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C344">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C350">
@@ -4991,13 +4991,13 @@
         <v>19</v>
       </c>
       <c r="D351">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C353">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C356">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C358">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C359">
@@ -5121,13 +5121,13 @@
         <v>2</v>
       </c>
       <c r="D361">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C363">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C364">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C365">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C370">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C371">
@@ -5283,20 +5283,20 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C374">
         <v>2</v>
       </c>
       <c r="D374">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C375">
@@ -5316,7 +5316,7 @@
         <v>19</v>
       </c>
       <c r="D376">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="377">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C381">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C382">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C384">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C385">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C387">
@@ -5491,14 +5491,14 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C390">
         <v>2</v>
       </c>
       <c r="D390">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="391">
@@ -5511,7 +5511,7 @@
         <v>2</v>
       </c>
       <c r="D391">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="392">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C403">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C405">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C407">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C409">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C412">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C413">
@@ -5810,7 +5810,7 @@
         <v>19</v>
       </c>
       <c r="D414">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="415">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C425">
@@ -6023,26 +6023,26 @@
         <v>2</v>
       </c>
       <c r="D430">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C431">
         <v>2</v>
       </c>
       <c r="D431">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C432">
@@ -6088,7 +6088,7 @@
         <v>2</v>
       </c>
       <c r="D435">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="436">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C438">
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="D439">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="440">
@@ -6153,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="D440">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="441">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C443">
@@ -6205,7 +6205,7 @@
         <v>2</v>
       </c>
       <c r="D444">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="445">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C447">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C450">
@@ -6367,20 +6367,20 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C457">
         <v>2</v>
       </c>
       <c r="D457">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C458">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C459">
@@ -6406,14 +6406,14 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C460">
         <v>2</v>
       </c>
       <c r="D460">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="461">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C462">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C463">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C464">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C467">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C472">
@@ -6575,14 +6575,14 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C473">
         <v>2</v>
       </c>
       <c r="D473">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="474">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C477">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C479">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C480">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C482">
@@ -6725,7 +6725,7 @@
         <v>2</v>
       </c>
       <c r="D484">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="485">
@@ -6738,7 +6738,7 @@
         <v>2</v>
       </c>
       <c r="D485">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="486">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C490">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C491">
@@ -6822,7 +6822,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C492">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C495">
@@ -6874,14 +6874,14 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C496">
         <v>2</v>
       </c>
       <c r="D496">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="497">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C500">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C504">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C505">
@@ -7107,7 +7107,7 @@
         <v>2</v>
       </c>
       <c r="D513">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="514">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C520">
@@ -7243,27 +7243,27 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C524">
         <v>2</v>
       </c>
       <c r="D524">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C525">
         <v>2</v>
       </c>
       <c r="D525">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="526">
@@ -7276,7 +7276,7 @@
         <v>2</v>
       </c>
       <c r="D526">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="527">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C529">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C532">
@@ -7380,7 +7380,7 @@
         <v>2</v>
       </c>
       <c r="D534">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="535">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C538">
@@ -7458,7 +7458,7 @@
         <v>2</v>
       </c>
       <c r="D540">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="541">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C543">
@@ -7503,20 +7503,20 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C544">
         <v>2</v>
       </c>
       <c r="D544">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C545">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C548">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C550">
@@ -7627,7 +7627,7 @@
         <v>2</v>
       </c>
       <c r="D553">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="554">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C556">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C557">
@@ -7692,13 +7692,13 @@
         <v>2</v>
       </c>
       <c r="D558">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C559">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C560">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C566">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C567">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C571">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C572">
@@ -7906,20 +7906,20 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C575">
         <v>2</v>
       </c>
       <c r="D575">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C576">
@@ -8126,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="D591">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="592">
@@ -8204,7 +8204,7 @@
         <v>2</v>
       </c>
       <c r="D597">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="598">
@@ -8223,7 +8223,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C599">
@@ -8334,7 +8334,7 @@
         <v>2</v>
       </c>
       <c r="D607">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="608">
@@ -8412,7 +8412,7 @@
         <v>2</v>
       </c>
       <c r="D613">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="614">
@@ -8633,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="D630">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="631">
@@ -8646,7 +8646,7 @@
         <v>2</v>
       </c>
       <c r="D631">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="632">
@@ -8932,7 +8932,7 @@
         <v>2</v>
       </c>
       <c r="D653">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="654">
@@ -8990,7 +8990,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C658">
@@ -9036,7 +9036,7 @@
         <v>2</v>
       </c>
       <c r="D661">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="662">
@@ -9049,7 +9049,7 @@
         <v>2</v>
       </c>
       <c r="D662">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="663">
@@ -9062,7 +9062,7 @@
         <v>19</v>
       </c>
       <c r="D663">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="664">
@@ -9166,7 +9166,7 @@
         <v>2</v>
       </c>
       <c r="D671">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="672">
@@ -9218,7 +9218,7 @@
         <v>2</v>
       </c>
       <c r="D675">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="676">
@@ -9288,7 +9288,7 @@
         <v>2</v>
       </c>
       <c r="D680">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="681">
@@ -9307,7 +9307,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C682">
@@ -9398,7 +9398,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C689">
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="D690">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="691">
@@ -9450,7 +9450,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C693">
@@ -9528,7 +9528,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C699">
@@ -9541,7 +9541,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C700">
@@ -9632,7 +9632,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C707">
@@ -9670,7 +9670,7 @@
         <v>2</v>
       </c>
       <c r="D709">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="710">
@@ -9702,7 +9702,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C712">
@@ -9793,7 +9793,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C719">
@@ -9922,7 +9922,7 @@
         <v>2</v>
       </c>
       <c r="D728">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="729">
@@ -9948,7 +9948,7 @@
         <v>2</v>
       </c>
       <c r="D730">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="731">
@@ -10013,7 +10013,7 @@
         <v>2</v>
       </c>
       <c r="D735">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="736">
@@ -10084,7 +10084,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C741">
@@ -10149,7 +10149,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C746">
@@ -10200,13 +10200,13 @@
         <v>2</v>
       </c>
       <c r="D749">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C750">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C756">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C757">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C759">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C760">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C762">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C764">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C765">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C766">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C769">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C777">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C778">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C780">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C782">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C784">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C785">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C788">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C789">
@@ -10746,7 +10746,7 @@
         <v>2</v>
       </c>
       <c r="D791">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="792">
@@ -10759,7 +10759,7 @@
         <v>2</v>
       </c>
       <c r="D792">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="793">
@@ -10785,7 +10785,7 @@
         <v>19</v>
       </c>
       <c r="D794">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="795">
@@ -10798,7 +10798,7 @@
         <v>2</v>
       </c>
       <c r="D795">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="796">
@@ -10850,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="D799">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="800">
@@ -10876,7 +10876,7 @@
         <v>2</v>
       </c>
       <c r="D801">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="802">
@@ -10908,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C804">
@@ -10980,7 +10980,7 @@
         <v>2</v>
       </c>
       <c r="D809">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="810">
@@ -11006,7 +11006,7 @@
         <v>2</v>
       </c>
       <c r="D811">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="812">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C817">
@@ -11097,7 +11097,7 @@
         <v>2</v>
       </c>
       <c r="D818">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="819">
@@ -11110,7 +11110,7 @@
         <v>2</v>
       </c>
       <c r="D819">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="820">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C823">
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="D830">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="831">
@@ -11357,7 +11357,7 @@
         <v>2</v>
       </c>
       <c r="D838">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="839">
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="D840">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="841">
@@ -11448,7 +11448,7 @@
         <v>2</v>
       </c>
       <c r="D845">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="846">
@@ -11461,7 +11461,7 @@
         <v>2</v>
       </c>
       <c r="D846">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="847">
@@ -11474,7 +11474,7 @@
         <v>2</v>
       </c>
       <c r="D847">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="848">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C856">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C857">
@@ -11734,13 +11734,13 @@
         <v>2</v>
       </c>
       <c r="D867">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C868">
@@ -11812,7 +11812,7 @@
         <v>2</v>
       </c>
       <c r="D873">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="874">
@@ -11825,7 +11825,7 @@
         <v>2</v>
       </c>
       <c r="D874">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="875">
@@ -11864,7 +11864,7 @@
         <v>2</v>
       </c>
       <c r="D877">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="878">
@@ -11916,13 +11916,13 @@
         <v>2</v>
       </c>
       <c r="D881">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C882">
@@ -12059,7 +12059,7 @@
         <v>2</v>
       </c>
       <c r="D892">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="893">
@@ -12072,7 +12072,7 @@
         <v>2</v>
       </c>
       <c r="D893">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="894">
@@ -12117,14 +12117,14 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C897">
         <v>2</v>
       </c>
       <c r="D897">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="898">
@@ -12254,7 +12254,7 @@
         <v>2</v>
       </c>
       <c r="D907">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="908">
@@ -12371,7 +12371,7 @@
         <v>2</v>
       </c>
       <c r="D916">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="917">
@@ -12397,7 +12397,7 @@
         <v>19</v>
       </c>
       <c r="D918">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="919">
@@ -12423,7 +12423,7 @@
         <v>2</v>
       </c>
       <c r="D920">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="921">
@@ -12475,7 +12475,7 @@
         <v>2</v>
       </c>
       <c r="D924">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="925">
@@ -12631,7 +12631,7 @@
         <v>2</v>
       </c>
       <c r="D936">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="937">
@@ -12767,7 +12767,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C947">
@@ -12897,7 +12897,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C957">
@@ -12910,7 +12910,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C958">
@@ -12923,7 +12923,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C959">
@@ -12936,20 +12936,20 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C960">
         <v>19</v>
       </c>
       <c r="D960">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C961">
@@ -12975,7 +12975,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C963">
@@ -12988,7 +12988,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C964">
@@ -13001,7 +13001,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C965">
@@ -13027,20 +13027,20 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C967">
         <v>19</v>
       </c>
       <c r="D967">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C968">
@@ -13066,7 +13066,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C970">
@@ -13099,13 +13099,13 @@
         <v>19</v>
       </c>
       <c r="D972">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C973">
@@ -13156,7 +13156,7 @@
         <v>2</v>
       </c>
       <c r="D976">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="977">
@@ -13247,7 +13247,7 @@
         <v>2</v>
       </c>
       <c r="D983">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="984">
@@ -13260,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="D984">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="985">
@@ -13312,7 +13312,7 @@
         <v>2</v>
       </c>
       <c r="D988">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="989">
@@ -13377,13 +13377,13 @@
         <v>2</v>
       </c>
       <c r="D993">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C994">
@@ -13409,14 +13409,14 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C996">
         <v>2</v>
       </c>
       <c r="D996">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="997">
@@ -13513,7 +13513,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1004">
@@ -13546,7 +13546,7 @@
         <v>2</v>
       </c>
       <c r="D1006">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1007">
@@ -13585,13 +13585,13 @@
         <v>2</v>
       </c>
       <c r="D1009">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1010">
@@ -13604,7 +13604,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1011">
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="D1017">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1018">
@@ -13741,13 +13741,13 @@
         <v>2</v>
       </c>
       <c r="D1021">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1022">
@@ -13799,7 +13799,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1026">
@@ -13825,7 +13825,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1028">
@@ -13871,7 +13871,7 @@
         <v>2</v>
       </c>
       <c r="D1031">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1032">
@@ -13897,7 +13897,7 @@
         <v>2</v>
       </c>
       <c r="D1033">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1034">
@@ -13910,7 +13910,7 @@
         <v>2</v>
       </c>
       <c r="D1034">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1035">
@@ -13929,14 +13929,14 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1036">
         <v>2</v>
       </c>
       <c r="D1036">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1037">
@@ -14007,7 +14007,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1042">
@@ -14079,7 +14079,7 @@
         <v>2</v>
       </c>
       <c r="D1047">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1048">
@@ -14118,7 +14118,7 @@
         <v>2</v>
       </c>
       <c r="D1050">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1051">
@@ -14196,7 +14196,7 @@
         <v>2</v>
       </c>
       <c r="D1056">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1057">
@@ -14235,13 +14235,13 @@
         <v>2</v>
       </c>
       <c r="D1059">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1060">
@@ -14254,7 +14254,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1061">
@@ -14287,13 +14287,13 @@
         <v>2</v>
       </c>
       <c r="D1063">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1064">
@@ -14365,13 +14365,13 @@
         <v>2</v>
       </c>
       <c r="D1069">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1070">
@@ -14404,7 +14404,7 @@
         <v>2</v>
       </c>
       <c r="D1072">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1073">
@@ -14430,13 +14430,13 @@
         <v>2</v>
       </c>
       <c r="D1074">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1075">
@@ -14449,7 +14449,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1076">
@@ -14514,7 +14514,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1081">
@@ -14547,7 +14547,7 @@
         <v>2</v>
       </c>
       <c r="D1083">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1084">
@@ -14638,7 +14638,7 @@
         <v>2</v>
       </c>
       <c r="D1090">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1091">
@@ -14690,7 +14690,7 @@
         <v>2</v>
       </c>
       <c r="D1094">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1095">
@@ -14807,7 +14807,7 @@
         <v>2</v>
       </c>
       <c r="D1103">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1104">
@@ -14870,7 +14870,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1108">
@@ -14896,7 +14896,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1110">
@@ -14916,7 +14916,7 @@
         <v>2</v>
       </c>
       <c r="D1111">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1112">
@@ -14974,7 +14974,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1116">
@@ -14987,7 +14987,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1117">
@@ -15026,7 +15026,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1120">
@@ -15065,7 +15065,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1123">
@@ -15098,7 +15098,7 @@
         <v>2</v>
       </c>
       <c r="D1125">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1126">
@@ -15129,7 +15129,7 @@
         <v>2</v>
       </c>
       <c r="D1127">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1128">
@@ -15212,13 +15212,13 @@
         <v>19</v>
       </c>
       <c r="D1133">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1134">
@@ -15251,7 +15251,7 @@
         <v>2</v>
       </c>
       <c r="D1136">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1137">
@@ -15283,7 +15283,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1139">
@@ -15368,7 +15368,7 @@
         <v>2</v>
       </c>
       <c r="D1145">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1146">
@@ -15400,7 +15400,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1148">
@@ -15478,7 +15478,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1154">
@@ -15530,7 +15530,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1158">
@@ -15556,7 +15556,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1160">
@@ -15654,7 +15654,7 @@
         <v>2</v>
       </c>
       <c r="D1167">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1168">
@@ -15673,7 +15673,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1169">
@@ -15686,7 +15686,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1170">
@@ -15699,7 +15699,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1171">
@@ -15712,7 +15712,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1172">
@@ -15745,7 +15745,7 @@
         <v>2</v>
       </c>
       <c r="D1174">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1175">
@@ -15932,7 +15932,7 @@
         <v>2</v>
       </c>
       <c r="D1188">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1189">
@@ -16041,7 +16041,7 @@
         <v>2</v>
       </c>
       <c r="D1196">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1197">
@@ -16080,7 +16080,7 @@
         <v>2</v>
       </c>
       <c r="D1199">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1200">
@@ -16093,7 +16093,7 @@
         <v>2</v>
       </c>
       <c r="D1200">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1201">
@@ -16106,7 +16106,7 @@
         <v>2</v>
       </c>
       <c r="D1201">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1202">
@@ -16228,7 +16228,7 @@
         <v>2</v>
       </c>
       <c r="D1210">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1211">
@@ -16254,13 +16254,13 @@
         <v>2</v>
       </c>
       <c r="D1212">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1213">
@@ -16306,7 +16306,7 @@
         <v>2</v>
       </c>
       <c r="D1216">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1217">
@@ -16363,7 +16363,7 @@
         <v>2</v>
       </c>
       <c r="D1220">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1221">
@@ -16597,7 +16597,7 @@
         <v>2</v>
       </c>
       <c r="D1238">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1239">
@@ -16707,7 +16707,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1247">
@@ -16829,7 +16829,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1256">
@@ -16862,7 +16862,7 @@
         <v>2</v>
       </c>
       <c r="D1258">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1259">
@@ -16894,14 +16894,14 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1261">
         <v>2</v>
       </c>
       <c r="D1261">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1262">
@@ -16914,7 +16914,7 @@
         <v>2</v>
       </c>
       <c r="D1262">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1263">
@@ -16946,14 +16946,14 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1265">
         <v>2</v>
       </c>
       <c r="D1265">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1266">
@@ -16966,13 +16966,13 @@
         <v>2</v>
       </c>
       <c r="D1266">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1267">
@@ -17005,13 +17005,13 @@
         <v>2</v>
       </c>
       <c r="D1269">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1270">
@@ -17024,14 +17024,14 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1271">
         <v>2</v>
       </c>
       <c r="D1271">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1272">
@@ -17089,7 +17089,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1276">
@@ -17109,7 +17109,7 @@
         <v>2</v>
       </c>
       <c r="D1277">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1278">
@@ -17161,7 +17161,7 @@
         <v>2</v>
       </c>
       <c r="D1281">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1282">
@@ -17296,13 +17296,13 @@
         <v>2</v>
       </c>
       <c r="D1291">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1292">
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1292">
@@ -17354,7 +17354,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1296">
@@ -17387,7 +17387,7 @@
         <v>2</v>
       </c>
       <c r="D1298">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1299">
@@ -17445,7 +17445,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1303">
@@ -17484,7 +17484,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1306">
@@ -17510,7 +17510,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1308">
@@ -17556,7 +17556,7 @@
         <v>2</v>
       </c>
       <c r="D1311">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1312">
@@ -17634,7 +17634,7 @@
         <v>2</v>
       </c>
       <c r="D1317">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1318">
@@ -17699,7 +17699,7 @@
         <v>2</v>
       </c>
       <c r="D1322">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1323">
@@ -17712,7 +17712,7 @@
         <v>2</v>
       </c>
       <c r="D1323">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1324">
@@ -17731,7 +17731,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1325">
@@ -17842,7 +17842,7 @@
         <v>2</v>
       </c>
       <c r="D1333">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1334">
@@ -17926,7 +17926,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1340">
@@ -17939,7 +17939,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1341">
@@ -17991,7 +17991,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1345">
@@ -18004,7 +18004,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1346">
@@ -18017,7 +18017,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1347">
@@ -18030,7 +18030,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1348">
@@ -18050,7 +18050,7 @@
         <v>2</v>
       </c>
       <c r="D1349">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1350">
@@ -18147,7 +18147,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1357">
@@ -18186,7 +18186,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1360">
@@ -18225,7 +18225,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1363">
@@ -18264,7 +18264,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1366">
@@ -18310,7 +18310,7 @@
         <v>19</v>
       </c>
       <c r="D1369">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="1370">
@@ -18362,7 +18362,7 @@
         <v>2</v>
       </c>
       <c r="D1373">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1374">
@@ -18459,7 +18459,7 @@
     <row r="1381">
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1381">
@@ -18472,7 +18472,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1382">
@@ -18492,7 +18492,7 @@
         <v>2</v>
       </c>
       <c r="D1383">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1384">
@@ -18524,14 +18524,14 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1386">
         <v>19</v>
       </c>
       <c r="D1386">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="1387">
@@ -18570,7 +18570,7 @@
         <v>2</v>
       </c>
       <c r="D1389">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1390">
@@ -18628,7 +18628,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1394">
@@ -18661,7 +18661,7 @@
         <v>2</v>
       </c>
       <c r="D1396">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1397">
@@ -18680,7 +18680,7 @@
     <row r="1398">
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1398">
@@ -18758,7 +18758,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1404">
@@ -18830,7 +18830,7 @@
         <v>2</v>
       </c>
       <c r="D1409">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1410">
@@ -18869,7 +18869,7 @@
         <v>2</v>
       </c>
       <c r="D1412">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1413">
@@ -18882,7 +18882,7 @@
         <v>2</v>
       </c>
       <c r="D1413">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1414">
@@ -18934,7 +18934,7 @@
         <v>19</v>
       </c>
       <c r="D1417">
-        <v>0.0009252495738982225</v>
+        <v>0.0009252495738982224</v>
       </c>
     </row>
     <row r="1418">
@@ -19129,7 +19129,7 @@
         <v>2</v>
       </c>
       <c r="D1432">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1433">
@@ -19161,7 +19161,7 @@
     <row r="1435">
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1435">
@@ -19194,7 +19194,7 @@
         <v>2</v>
       </c>
       <c r="D1437">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1438">
@@ -19291,7 +19291,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1445">
@@ -19464,7 +19464,7 @@
         <v>2</v>
       </c>
       <c r="D1457">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1458">
@@ -19483,7 +19483,7 @@
     <row r="1459">
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1459">
@@ -19574,7 +19574,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1466">
@@ -19620,7 +19620,7 @@
         <v>2</v>
       </c>
       <c r="D1469">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1470">
@@ -19652,7 +19652,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1472">
@@ -19685,26 +19685,26 @@
         <v>2</v>
       </c>
       <c r="D1474">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1475">
         <v>2</v>
       </c>
       <c r="D1475">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1476">
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1476">
@@ -19737,7 +19737,7 @@
         <v>2</v>
       </c>
       <c r="D1478">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1479">
@@ -19808,7 +19808,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1484">
@@ -19821,14 +19821,14 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1485">
         <v>2</v>
       </c>
       <c r="D1485">
-        <v>9.739469198928659E-05</v>
+        <v>9.73946919892866E-05</v>
       </c>
     </row>
     <row r="1486">
@@ -19847,7 +19847,7 @@
     <row r="1487">
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1487">
@@ -19946,41 +19946,6 @@
       </c>
       <c r="D1494">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
